--- a/GolangBasic/No15_ExcelOperator/TestCreateFile/newWorkBook.xlsx
+++ b/GolangBasic/No15_ExcelOperator/TestCreateFile/newWorkBook.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="true"/>
+  <workbookProtection lockStructure="true" lockWindows="true" workbookAlgorithmName="MD5" workbookHashValue="N4+E+TUHTK/g9cWH8GWMVQ==" workbookSaltValue="Wvo97tHV1nLOh7MhgTtqZw==" workbookSpinCount="100000"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="新建工作表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t>一条测试数据</t>
   </si>
@@ -23,12 +25,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,10 +63,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -319,33 +335,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup r:id="rId1" orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>